--- a/static/exports/students.xlsx
+++ b/static/exports/students.xlsx
@@ -959,7 +959,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>default.png</t>
+          <t>20250510_203843.jpg</t>
         </is>
       </c>
     </row>
